--- a/pratica_01/custos.xlsx
+++ b/pratica_01/custos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\net_p\Downloads\repo_01\pratica_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F906F-1AE6-4B99-9963-C5857CEA639D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8485C-EC3E-4A01-8A07-AC42DAFF8D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E1BFA3BC-F2FB-438D-BB09-55799E7D56A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1BFA3BC-F2FB-438D-BB09-55799E7D56A0}"/>
   </bookViews>
   <sheets>
     <sheet name="pacotes_trabalho" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Atividades</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Valor Médio da Hora Trabalhada</t>
+  </si>
+  <si>
+    <t>Valor da hora de Trabalho</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,11 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C1C854-18B1-4D99-94CA-AF9E3774FFF4}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,9 +455,10 @@
     <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -473,10 +477,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <f>B2*$F$3</f>
+        <v>600</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -484,10 +492,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
+        <f t="shared" ref="C3:C6" si="0">B3*$F$3</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -495,10 +507,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -506,10 +519,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -517,6 +531,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -569,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508B4703-CBCB-478F-89C5-1552E3C440AE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,8 +599,8 @@
         <v>10</v>
       </c>
       <c r="B1" s="6">
-        <f>(pacotes_trabalho!B2*pacotes_trabalho!C2)+(pacotes_trabalho!B3*pacotes_trabalho!C3)+(pacotes_trabalho!B4*pacotes_trabalho!C4)+(pacotes_trabalho!B5*pacotes_trabalho!C5)+(pacotes_trabalho!B6*pacotes_trabalho!C6)</f>
-        <v>3240</v>
+        <f>(pacotes_trabalho!C2)+(pacotes_trabalho!C3)+(pacotes_trabalho!C4)+(pacotes_trabalho!C5)+(pacotes_trabalho!C6)</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -594,7 +609,7 @@
       </c>
       <c r="B2" s="5">
         <f>AVERAGE(pacotes_trabalho!C2:C6)</f>
-        <v>296</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
